--- a/ExcelTEST01.xlsx
+++ b/ExcelTEST01.xlsx
@@ -24,13 +24,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hello1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>this is a good day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hello2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">this is first </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C3"/>
+  <dimension ref="B3:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -380,6 +388,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
